--- a/data/trans_orig/P40-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P40-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4189</v>
+        <v>4762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00136321229790909</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006035706688928449</v>
+        <v>0.006861958943299499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>6185</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2200</v>
+        <v>2344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12836</v>
+        <v>13322</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008985610358085348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003195753874833492</v>
+        <v>0.003405621648264675</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01864696338976348</v>
+        <v>0.01935375590008741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7131</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2858</v>
+        <v>3082</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14063</v>
+        <v>14434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005158803586266447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002067664631823445</v>
+        <v>0.002229420095971672</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01017296162326334</v>
+        <v>0.01044171340241705</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>20083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12858</v>
+        <v>12627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29591</v>
+        <v>30281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02893754018679865</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0185276067808219</v>
+        <v>0.01819393120375927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04263776648735273</v>
+        <v>0.04363174051682787</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -836,19 +836,19 @@
         <v>52689</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39222</v>
+        <v>40811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67288</v>
+        <v>66521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07654352515021492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05697918470828398</v>
+        <v>0.05928846922567622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09775205886291052</v>
+        <v>0.09663767782871173</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -857,19 +857,19 @@
         <v>72772</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58683</v>
+        <v>57069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90943</v>
+        <v>88418</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05264305390758639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0424512573110359</v>
+        <v>0.04128347635650599</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0657878255634867</v>
+        <v>0.06396182182844261</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>101165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82796</v>
+        <v>82375</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120830</v>
+        <v>119376</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1457688982755835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1193011040624027</v>
+        <v>0.1186941630705976</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1741041918857703</v>
+        <v>0.1720088023788696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -907,19 +907,19 @@
         <v>133139</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113730</v>
+        <v>114988</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>153968</v>
+        <v>156365</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1934169852021997</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.165221496139837</v>
+        <v>0.1670484021704755</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2236759001474856</v>
+        <v>0.2271583140109619</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>236</v>
@@ -928,19 +928,19 @@
         <v>234304</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>207611</v>
+        <v>208636</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>262583</v>
+        <v>262235</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1694953767693315</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1501855367123338</v>
+        <v>0.1509271036473865</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1899521575200883</v>
+        <v>0.189700207802176</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>449372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>423913</v>
+        <v>425838</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>472910</v>
+        <v>475422</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.647498258401598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6108154907254569</v>
+        <v>0.6135883690180444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6814141589707901</v>
+        <v>0.6850340971546075</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>413</v>
@@ -978,19 +978,19 @@
         <v>406996</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>381960</v>
+        <v>381734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>432821</v>
+        <v>431130</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5912619178866964</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.554891247643314</v>
+        <v>0.5545636075512698</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6287794615613128</v>
+        <v>0.6263233531951199</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>855</v>
@@ -999,19 +999,19 @@
         <v>856367</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>819752</v>
+        <v>822032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>892988</v>
+        <v>892627</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6194952385563549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.593007889635317</v>
+        <v>0.5946568051923458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6459866351526337</v>
+        <v>0.6457257711784399</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>122446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104105</v>
+        <v>102213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144254</v>
+        <v>142622</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1764320908381108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1500039066522784</v>
+        <v>0.1472780815549356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2078548031673329</v>
+        <v>0.2055032951544754</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -1049,19 +1049,19 @@
         <v>89342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73648</v>
+        <v>74068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108881</v>
+        <v>107428</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1297919614028036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1069916415727929</v>
+        <v>0.1076019136482981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1581763946977366</v>
+        <v>0.1560656437446381</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>207</v>
@@ -1070,19 +1070,19 @@
         <v>211788</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>185714</v>
+        <v>186992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>240019</v>
+        <v>239053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1532075271804608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1343456522589982</v>
+        <v>0.1352695366462197</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1736294085101756</v>
+        <v>0.172930883540696</v>
       </c>
     </row>
     <row r="9">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8908</v>
+        <v>9995</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002792427213464877</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009271930669836547</v>
+        <v>0.01040303070870723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7480</v>
+        <v>8710</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002166220435208484</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007723894951547167</v>
+        <v>0.008994650256299166</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1216,19 +1216,19 @@
         <v>4781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12100</v>
+        <v>11671</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002478091601114365</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000598520365079006</v>
+        <v>0.0005971871070999181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006272052188028291</v>
+        <v>0.006049697370536292</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>20949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13346</v>
+        <v>13423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30604</v>
+        <v>31452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02180417760788624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01389099900805108</v>
+        <v>0.01397086381388059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03185213178357544</v>
+        <v>0.03273467899942261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1266,19 +1266,19 @@
         <v>45466</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33508</v>
+        <v>34376</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61112</v>
+        <v>61289</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04694972885265043</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03460117092636016</v>
+        <v>0.0354983363314282</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06310676324093899</v>
+        <v>0.06328924251439882</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -1287,19 +1287,19 @@
         <v>66415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51862</v>
+        <v>51394</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>85261</v>
+        <v>85083</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03442643358285728</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02688282265515995</v>
+        <v>0.02664023950595705</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04419499233650494</v>
+        <v>0.0441026978068208</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>124248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>103755</v>
+        <v>105082</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>146662</v>
+        <v>145774</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1293175620043803</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1079876285543425</v>
+        <v>0.1093688278598809</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1526454356799396</v>
+        <v>0.1517209476755356</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>247</v>
@@ -1337,19 +1337,19 @@
         <v>267357</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>237431</v>
+        <v>239379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>295561</v>
+        <v>296808</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2760827910673876</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2451801410578475</v>
+        <v>0.2471924115486762</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3052079335654233</v>
+        <v>0.3064954424568375</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>368</v>
@@ -1358,19 +1358,19 @@
         <v>391605</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>356620</v>
+        <v>354636</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>428835</v>
+        <v>427576</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2029889749484201</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1848541597100205</v>
+        <v>0.1838257615635221</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2222868805960311</v>
+        <v>0.2216345682020189</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>617052</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>586436</v>
+        <v>581935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>647045</v>
+        <v>644825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6422267467145518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6103612052027516</v>
+        <v>0.6056774080669117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6734437015377385</v>
+        <v>0.6711328417789307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>507</v>
@@ -1408,19 +1408,19 @@
         <v>537524</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>510455</v>
+        <v>507482</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>569432</v>
+        <v>573015</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5550678020568528</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5271152148612773</v>
+        <v>0.5240451971737462</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5880175688837188</v>
+        <v>0.5917173993837852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1084</v>
@@ -1429,19 +1429,19 @@
         <v>1154576</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1110126</v>
+        <v>1114216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1199221</v>
+        <v>1197717</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5984757666994733</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5754351316964764</v>
+        <v>0.5775554403839919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6216174388937865</v>
+        <v>0.6208380867950694</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>195868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>170453</v>
+        <v>170973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>222894</v>
+        <v>223978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2038590864597168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1774075082929323</v>
+        <v>0.177948897572499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2319877728087474</v>
+        <v>0.2331158941969129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -1479,19 +1479,19 @@
         <v>115949</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95954</v>
+        <v>95081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136061</v>
+        <v>137826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1197334575879006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09908610960289126</v>
+        <v>0.09818441285147617</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.140501864208726</v>
+        <v>0.1423242497393248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>283</v>
@@ -1500,19 +1500,19 @@
         <v>311817</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>278579</v>
+        <v>277945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>346415</v>
+        <v>346216</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1616307331681349</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1444018780185423</v>
+        <v>0.1440731796934321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1795648061701056</v>
+        <v>0.1794615403902594</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4972</v>
+        <v>6040</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002528512682461432</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007337806882911369</v>
+        <v>0.008914611953940886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1625,19 +1625,19 @@
         <v>4433</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11019</v>
+        <v>11112</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006499057879962153</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001383488461071398</v>
+        <v>0.001397915967033646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01615562621190237</v>
+        <v>0.01629193513329851</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1646,19 +1646,19 @@
         <v>6146</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1953</v>
+        <v>2630</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13316</v>
+        <v>13675</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004520338327764427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001436166764495314</v>
+        <v>0.001934030368029262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009793702625843559</v>
+        <v>0.01005776823700191</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>10164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5051</v>
+        <v>4781</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20204</v>
+        <v>18492</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01500139441154033</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007455231846486105</v>
+        <v>0.007056686806013126</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02981858526642851</v>
+        <v>0.02729240213597146</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1696,19 +1696,19 @@
         <v>27597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19289</v>
+        <v>18918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39788</v>
+        <v>37707</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04046217759781909</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02828083308664917</v>
+        <v>0.02773756259517879</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05833557766884456</v>
+        <v>0.0552851672649529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -1717,19 +1717,19 @@
         <v>37762</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26959</v>
+        <v>25782</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52547</v>
+        <v>50235</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02777380685803537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01982803337655677</v>
+        <v>0.01896254015876854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03864853716445856</v>
+        <v>0.03694758472359846</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>90719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72774</v>
+        <v>72940</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>108806</v>
+        <v>109237</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1338904682233196</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1074055949151804</v>
+        <v>0.1076503737151522</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1605841350577302</v>
+        <v>0.161220523719972</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>139</v>
@@ -1767,19 +1767,19 @@
         <v>134784</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116206</v>
+        <v>115772</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>158604</v>
+        <v>155360</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1976145435270493</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1703766601196124</v>
+        <v>0.1697409826169632</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2325385978814742</v>
+        <v>0.2277823479390875</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>227</v>
@@ -1788,19 +1788,19 @@
         <v>225503</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>196255</v>
+        <v>201039</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>255287</v>
+        <v>253022</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1658576770320956</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1443455489072338</v>
+        <v>0.1478645822346978</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1877638593342165</v>
+        <v>0.1860979871841205</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>443967</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>417856</v>
+        <v>420937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>468072</v>
+        <v>474322</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6552391954687021</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6167024558737875</v>
+        <v>0.6212499035958218</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6908146396165572</v>
+        <v>0.7000391192287972</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>428</v>
@@ -1838,7 +1838,7 @@
         <v>421913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>395414</v>
+        <v>398355</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>445947</v>
@@ -1847,10 +1847,10 @@
         <v>0.6185931823142593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5797408962856636</v>
+        <v>0.5840529839665146</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6538310315241287</v>
+        <v>0.65383035849733</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>839</v>
@@ -1859,19 +1859,19 @@
         <v>865880</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>831051</v>
+        <v>830067</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>901409</v>
+        <v>900907</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6368557077690593</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6112383208436485</v>
+        <v>0.6105147666813502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.662986618417868</v>
+        <v>0.6626177334248013</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>131001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111637</v>
+        <v>109788</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153004</v>
+        <v>154504</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1933404292139765</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1647627189587254</v>
+        <v>0.1620336238759166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2258147431394902</v>
+        <v>0.2280290182703752</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -1909,19 +1909,19 @@
         <v>93326</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76170</v>
+        <v>77789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110797</v>
+        <v>110981</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1368310386809102</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1116773003911242</v>
+        <v>0.114051563011423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1624467902010742</v>
+        <v>0.1627166499208493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>226</v>
@@ -1930,19 +1930,19 @@
         <v>224327</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>198590</v>
+        <v>199762</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>252635</v>
+        <v>252567</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1649924700130453</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.146063183583911</v>
+        <v>0.1469248282594855</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1858135255932118</v>
+        <v>0.1857632859203994</v>
       </c>
     </row>
     <row r="21">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6054</v>
+        <v>6131</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001843312731062464</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006431038619214282</v>
+        <v>0.006513002767652622</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2055,19 +2055,19 @@
         <v>7078</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3031</v>
+        <v>3085</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13425</v>
+        <v>14392</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006814547245792611</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002917841640353074</v>
+        <v>0.002970214192544011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01292564089883716</v>
+        <v>0.0138569403300527</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2076,19 +2076,19 @@
         <v>8813</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4008</v>
+        <v>3821</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16085</v>
+        <v>15773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004451042613381243</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002024524482539854</v>
+        <v>0.001929816691235051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008124065571659112</v>
+        <v>0.007966504638260426</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>17915</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11407</v>
+        <v>11426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26831</v>
+        <v>26649</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01903165226997347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01211801639154413</v>
+        <v>0.01213792333364493</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02850289855441117</v>
+        <v>0.02830943501806834</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>47</v>
@@ -2126,19 +2126,19 @@
         <v>48677</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35319</v>
+        <v>36687</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>63386</v>
+        <v>63784</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04686782423973763</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03400627652270671</v>
+        <v>0.03532332620981701</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0610293621684187</v>
+        <v>0.06141253367399097</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>68</v>
@@ -2147,19 +2147,19 @@
         <v>66593</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52558</v>
+        <v>51962</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>84762</v>
+        <v>83331</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03363350161742047</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0265449939575673</v>
+        <v>0.02624397397775944</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04281005521349524</v>
+        <v>0.04208738713174168</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>130507</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>108549</v>
+        <v>110922</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>149773</v>
+        <v>151523</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1386392025740223</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1153134766882554</v>
+        <v>0.1178341444257913</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1591059595951672</v>
+        <v>0.1609646537453821</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>222</v>
@@ -2197,19 +2197,19 @@
         <v>233397</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>207591</v>
+        <v>208279</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>258905</v>
+        <v>263235</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2247204500895537</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1998737553475707</v>
+        <v>0.2005361602991665</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2492798976999762</v>
+        <v>0.2534490427014912</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>359</v>
@@ -2218,19 +2218,19 @@
         <v>363904</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>330872</v>
+        <v>330785</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>397033</v>
+        <v>398697</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1837943125951627</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1671107326785142</v>
+        <v>0.1670672167583249</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2005265146933834</v>
+        <v>0.2013670043361138</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>593815</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>566382</v>
+        <v>569736</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>621739</v>
+        <v>624378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6308179464672871</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6016760512335927</v>
+        <v>0.6052387978746854</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6604823088899433</v>
+        <v>0.6632853561183174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>553</v>
@@ -2268,19 +2268,19 @@
         <v>571476</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>540447</v>
+        <v>536049</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>604245</v>
+        <v>604389</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5502305989704073</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5203546187161711</v>
+        <v>0.5161207745779272</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5817815733211399</v>
+        <v>0.5819196610773965</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1180</v>
@@ -2289,19 +2289,19 @@
         <v>1165292</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1121933</v>
+        <v>1118665</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1206972</v>
+        <v>1207783</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5885447377538919</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5666462145719656</v>
+        <v>0.5649955331827846</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6095961164519892</v>
+        <v>0.6100058149923588</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>197369</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173522</v>
+        <v>172065</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>222393</v>
+        <v>220731</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2096678859576548</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1843348883709316</v>
+        <v>0.1827870608813209</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2362513080865176</v>
+        <v>0.234486185699559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>168</v>
@@ -2339,19 +2339,19 @@
         <v>177983</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>154076</v>
+        <v>152672</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>203862</v>
+        <v>204632</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1713665794545088</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1483480696958045</v>
+        <v>0.1469963194275173</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1962833417767861</v>
+        <v>0.1970240447841627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>374</v>
@@ -2360,19 +2360,19 @@
         <v>375353</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>342549</v>
+        <v>341884</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>412795</v>
+        <v>409561</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1895764054201436</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1730085717238951</v>
+        <v>0.1726726440574752</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2084871568049884</v>
+        <v>0.2068540245136025</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>7077</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2674</v>
+        <v>2968</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15021</v>
+        <v>14584</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002161905081307237</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0008166646247726581</v>
+        <v>0.0009065586963658777</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.004588268522653533</v>
+        <v>0.004454979999288447</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -2485,19 +2485,19 @@
         <v>19793</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12938</v>
+        <v>12587</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30587</v>
+        <v>30675</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005860521700331313</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003830866374814663</v>
+        <v>0.003726786818670324</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.00905631059861235</v>
+        <v>0.009082368937706645</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -2506,19 +2506,19 @@
         <v>26871</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16996</v>
+        <v>17481</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39336</v>
+        <v>39303</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004040043712959173</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002555378684853699</v>
+        <v>0.002628236890700231</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00591416630479321</v>
+        <v>0.005909256418626535</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>69112</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>54894</v>
+        <v>55803</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>87793</v>
+        <v>88853</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02111120991312453</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01676798268222125</v>
+        <v>0.01704566053857414</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02681763191351597</v>
+        <v>0.02714128234647613</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>170</v>
@@ -2556,19 +2556,19 @@
         <v>174429</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>148359</v>
+        <v>150965</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>202634</v>
+        <v>201864</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05164593180873182</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04392694885906388</v>
+        <v>0.04469838593038228</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05999676867182607</v>
+        <v>0.0597687973207805</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>242</v>
@@ -2577,19 +2577,19 @@
         <v>243542</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>215708</v>
+        <v>216368</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>277615</v>
+        <v>276701</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0366165857620062</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03243181363100293</v>
+        <v>0.03253098273745782</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04173951405869041</v>
+        <v>0.0416020539310733</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>446640</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>408626</v>
+        <v>410520</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>485775</v>
+        <v>487381</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1364320126002267</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1248199917268796</v>
+        <v>0.1253986901201058</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1483862731108169</v>
+        <v>0.148876826092907</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>745</v>
@@ -2627,19 +2627,19 @@
         <v>768676</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>721353</v>
+        <v>721075</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>821709</v>
+        <v>813174</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2275935102326523</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2135817567043677</v>
+        <v>0.2134994772452835</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2432955518848341</v>
+        <v>0.2407686221510101</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1190</v>
@@ -2648,19 +2648,19 @@
         <v>1215317</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1150701</v>
+        <v>1155914</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1281734</v>
+        <v>1274079</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1827233555693939</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1730083396207661</v>
+        <v>0.1737922036153975</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1927092962185324</v>
+        <v>0.1915583034087769</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>2104206</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2047878</v>
+        <v>2046801</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2161538</v>
+        <v>2159411</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6427569381185039</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6255506943124797</v>
+        <v>0.6252218520772117</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.660269799894188</v>
+        <v>0.6596198496883169</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1901</v>
@@ -2698,19 +2698,19 @@
         <v>1937909</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1880601</v>
+        <v>1886699</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2002032</v>
+        <v>1996776</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5737856872076867</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5568175556578406</v>
+        <v>0.5586230988663824</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.592771692359494</v>
+        <v>0.5912153489550737</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3958</v>
@@ -2719,19 +2719,19 @@
         <v>4042115</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3952530</v>
+        <v>3962880</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4123402</v>
+        <v>4128296</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6077336891170584</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5942644537917181</v>
+        <v>0.5958206113076154</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6199552032271129</v>
+        <v>0.6206910747501133</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>646684</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>602729</v>
+        <v>599384</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>692857</v>
+        <v>691922</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1975379342868376</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1841112639743026</v>
+        <v>0.183089666777679</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2116420454572028</v>
+        <v>0.2113563832694526</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>460</v>
@@ -2769,19 +2769,19 @@
         <v>476601</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>436268</v>
+        <v>433511</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>515130</v>
+        <v>514716</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1411143490505979</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1291724849003296</v>
+        <v>0.128355941128312</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1525222258066056</v>
+        <v>0.1523996351273197</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1090</v>
@@ -2790,19 +2790,19 @@
         <v>1123285</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1062233</v>
+        <v>1060583</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1179323</v>
+        <v>1186939</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1688863258385823</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1597071340229806</v>
+        <v>0.1594591264361934</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1773116731365504</v>
+        <v>0.1784568116987965</v>
       </c>
     </row>
     <row r="33">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6464</v>
+        <v>7502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003077138649909935</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009263511565846433</v>
+        <v>0.01075024365127924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3155,19 +3155,19 @@
         <v>5000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1923</v>
+        <v>1943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10988</v>
+        <v>11008</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007216072916465617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002775543691565525</v>
+        <v>0.002804895054406599</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01585873304857862</v>
+        <v>0.01588785439258002</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3176,19 +3176,19 @@
         <v>7147</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14257</v>
+        <v>14332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00513928125338598</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002199533505936352</v>
+        <v>0.002196570663567177</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01025180815917357</v>
+        <v>0.01030572600904499</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>18618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11184</v>
+        <v>11415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29067</v>
+        <v>28840</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02668026147382492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01602720918405466</v>
+        <v>0.01635855902711596</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04165489616694786</v>
+        <v>0.04132983713608767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -3226,19 +3226,19 @@
         <v>37604</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25971</v>
+        <v>26792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49345</v>
+        <v>51921</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05427116285604712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03748293894840745</v>
+        <v>0.03866707953584189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07121665460644144</v>
+        <v>0.07493528791391485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -3247,19 +3247,19 @@
         <v>56221</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43037</v>
+        <v>42596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72331</v>
+        <v>71383</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0404268854944896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03094669718982847</v>
+        <v>0.03062947525521633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05201117575430834</v>
+        <v>0.05132927567908584</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>108701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90452</v>
+        <v>90310</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131121</v>
+        <v>130967</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1557760610148113</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1296239627776027</v>
+        <v>0.129419996602416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1879045857571384</v>
+        <v>0.1876850319463786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -3297,19 +3297,19 @@
         <v>148988</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>128716</v>
+        <v>127693</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>172589</v>
+        <v>171283</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2150270571994655</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1857683350906164</v>
+        <v>0.1842931247164653</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2490879592596548</v>
+        <v>0.2472034338659372</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>240</v>
@@ -3318,19 +3318,19 @@
         <v>257689</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>228298</v>
+        <v>230639</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>287629</v>
+        <v>288498</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.185296704654424</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.16416220331663</v>
+        <v>0.1658453257678788</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2068255681458551</v>
+        <v>0.2074500315545643</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>413470</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>387452</v>
+        <v>386524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>441494</v>
+        <v>439959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5925302679905881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5552447739378374</v>
+        <v>0.5539149704286144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6326898938404628</v>
+        <v>0.630491196981636</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>373</v>
@@ -3368,19 +3368,19 @@
         <v>403506</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>375467</v>
+        <v>377461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>428698</v>
+        <v>428537</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5823582174693026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5418917209726445</v>
+        <v>0.5447694054100113</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6187171401671797</v>
+        <v>0.6184847388868737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>768</v>
@@ -3389,19 +3389,19 @@
         <v>816975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>776768</v>
+        <v>776396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>854756</v>
+        <v>854397</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5874622438583494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5585503731314947</v>
+        <v>0.5582833452463946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6146295588272248</v>
+        <v>0.6143714569920189</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>154868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>134240</v>
+        <v>133802</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176412</v>
+        <v>176304</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2219362708708657</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1923744072578262</v>
+        <v>0.1917476245851851</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2528101224585169</v>
+        <v>0.252655805176242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -3439,19 +3439,19 @@
         <v>97785</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80286</v>
+        <v>79703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>118498</v>
+        <v>116669</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1411274895587192</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1158729275376056</v>
+        <v>0.1150308154737182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.171021682885519</v>
+        <v>0.1683819835743896</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>246</v>
@@ -3460,19 +3460,19 @@
         <v>252653</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>222936</v>
+        <v>224367</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>282356</v>
+        <v>285678</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.181674884739351</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1603069176775839</v>
+        <v>0.1613352671170572</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2030340905747719</v>
+        <v>0.2054225461200835</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>3084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8285</v>
+        <v>8875</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003067103576884208</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0009220611775813274</v>
+        <v>0.0009320030113699317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008240057461659666</v>
+        <v>0.008827433183297479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3585,19 +3585,19 @@
         <v>5408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2094</v>
+        <v>2031</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11770</v>
+        <v>11559</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005261449654211848</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00203710310512536</v>
+        <v>0.00197571275148453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01145119548495432</v>
+        <v>0.01124535459969205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3606,19 +3606,19 @@
         <v>8492</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4048</v>
+        <v>3936</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16724</v>
+        <v>16822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004176391131426095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001990814479416692</v>
+        <v>0.001935549220172593</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008224969869564485</v>
+        <v>0.008273229204583354</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>20593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12761</v>
+        <v>12825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32388</v>
+        <v>30623</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02048175843430421</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01269191802425752</v>
+        <v>0.01275541508075812</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03221324139780322</v>
+        <v>0.03045758244370224</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -3656,19 +3656,19 @@
         <v>42254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31080</v>
+        <v>30871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56735</v>
+        <v>56350</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04110805591398581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03023697401794912</v>
+        <v>0.03003359363750976</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05519650461197761</v>
+        <v>0.05482204499957168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -3677,19 +3677,19 @@
         <v>62847</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49549</v>
+        <v>49101</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>81702</v>
+        <v>81038</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03090878055578938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02436883819629</v>
+        <v>0.02414855219739121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04018190812653314</v>
+        <v>0.0398553467163042</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>139962</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118450</v>
+        <v>119560</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>165732</v>
+        <v>163236</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1392074584383568</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1178110109360284</v>
+        <v>0.1189152871323409</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1648385492308227</v>
+        <v>0.1623562146486426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>200</v>
@@ -3727,19 +3727,19 @@
         <v>224424</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>200541</v>
+        <v>195183</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>253323</v>
+        <v>254859</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2183384330095303</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1951033613200059</v>
+        <v>0.1898907936074219</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2464539839905941</v>
+        <v>0.2479487255473492</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>327</v>
@@ -3748,19 +3748,19 @@
         <v>364386</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>328252</v>
+        <v>326790</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>398364</v>
+        <v>397013</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1792098109284773</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1614387095901282</v>
+        <v>0.1607196309890785</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1959207888322951</v>
+        <v>0.195256482217937</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>641155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>611456</v>
+        <v>610377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>675190</v>
+        <v>673702</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6376985169018262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6081595586280025</v>
+        <v>0.6070855423418668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6715491180104283</v>
+        <v>0.6700697371604151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>569</v>
@@ -3798,19 +3798,19 @@
         <v>621741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>588087</v>
+        <v>587290</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>652022</v>
+        <v>654984</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6048819654449109</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5721408000373188</v>
+        <v>0.5713651066561359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.634341863418341</v>
+        <v>0.6372242138967084</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1156</v>
@@ -3819,19 +3819,19 @@
         <v>1262896</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1214618</v>
+        <v>1219503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1305146</v>
+        <v>1307272</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6211090680039237</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5973652864250139</v>
+        <v>0.5997676555436197</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.641888363915064</v>
+        <v>0.6429337908183922</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>200627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173751</v>
+        <v>176147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>225174</v>
+        <v>229403</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1995451626486286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1728145593086831</v>
+        <v>0.1751976246582448</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.223959947408165</v>
+        <v>0.2281661546771187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>123</v>
@@ -3869,19 +3869,19 @@
         <v>134045</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111543</v>
+        <v>111184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>159167</v>
+        <v>157498</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1304100959773611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1085180348181268</v>
+        <v>0.108169292480726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1548508009439988</v>
+        <v>0.1532277024959028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -3890,19 +3890,19 @@
         <v>334672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>301835</v>
+        <v>302276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>371548</v>
+        <v>368189</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1645959493803835</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1484463411955883</v>
+        <v>0.1486632097651092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.182732356371663</v>
+        <v>0.1810804170250668</v>
       </c>
     </row>
     <row r="15">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5116</v>
+        <v>4512</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001365328207323456</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006868751211903419</v>
+        <v>0.006058121611863783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4015,19 +4015,19 @@
         <v>8459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3185</v>
+        <v>4133</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15551</v>
+        <v>16478</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01095419807889055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004124059235648942</v>
+        <v>0.00535247359315866</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02013844498617345</v>
+        <v>0.02133845859310601</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -4036,19 +4036,19 @@
         <v>9476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4920</v>
+        <v>4947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17231</v>
+        <v>18051</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006246471729034319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003243583575345771</v>
+        <v>0.003261007328687571</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01135899573084047</v>
+        <v>0.01189953780286296</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>14644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8086</v>
+        <v>7395</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27030</v>
+        <v>25858</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0196630815268114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01085730447269413</v>
+        <v>0.009929047886458606</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03629392490005947</v>
+        <v>0.0347198478189135</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -4086,19 +4086,19 @@
         <v>34051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23236</v>
+        <v>24329</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47422</v>
+        <v>49463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04409655712751053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03009103972066992</v>
+        <v>0.03150642194725883</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06141218038378642</v>
+        <v>0.0640543961209948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -4107,19 +4107,19 @@
         <v>48696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35821</v>
+        <v>34936</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67003</v>
+        <v>66824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03210076216474271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02361363684823939</v>
+        <v>0.02302999068727287</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04416941362948325</v>
+        <v>0.04405129930900462</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>101289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82292</v>
+        <v>82855</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123984</v>
+        <v>123750</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1360010027923753</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1104932598811029</v>
+        <v>0.1112494771374352</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1664740156020918</v>
+        <v>0.1661597793395133</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>150</v>
@@ -4157,19 +4157,19 @@
         <v>163965</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>139895</v>
+        <v>141932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>188380</v>
+        <v>186945</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2123355479351972</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.181164257326313</v>
+        <v>0.1838019459617525</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.243952691253472</v>
+        <v>0.2420939215478511</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>235</v>
@@ -4178,19 +4178,19 @@
         <v>265254</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>238155</v>
+        <v>232464</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>299099</v>
+        <v>295348</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1748585402808611</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.15699466565939</v>
+        <v>0.1532430872338363</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1971694540277046</v>
+        <v>0.1946967997232017</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>426882</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>397461</v>
+        <v>396009</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>454080</v>
+        <v>456065</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5731764378188152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.533672447957263</v>
+        <v>0.5317236756761332</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6096961823111411</v>
+        <v>0.612361576129861</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>394</v>
@@ -4228,19 +4228,19 @@
         <v>433778</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>406304</v>
+        <v>406012</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>463861</v>
+        <v>463243</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5617443951182801</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5261644667896703</v>
+        <v>0.5257869154764802</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6007018275545183</v>
+        <v>0.5999012146660452</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>790</v>
@@ -4249,19 +4249,19 @@
         <v>860660</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>819689</v>
+        <v>817164</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>903518</v>
+        <v>899860</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5673570407558619</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5403485693905016</v>
+        <v>0.5386836699972081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5956092712844566</v>
+        <v>0.5931982105551796</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>200933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177291</v>
+        <v>177094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225995</v>
+        <v>225604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2697941496546746</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2380495087508286</v>
+        <v>0.2377848757727593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3034444639789678</v>
+        <v>0.3029203242204477</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -4299,19 +4299,19 @@
         <v>131945</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112118</v>
+        <v>111044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>154979</v>
+        <v>153241</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1708693017401217</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1451931127002716</v>
+        <v>0.1438026386751375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2006988158300934</v>
+        <v>0.1984472029153289</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>302</v>
@@ -4320,19 +4320,19 @@
         <v>332878</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>299423</v>
+        <v>300734</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>368024</v>
+        <v>369671</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2194371850694999</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1973831515200815</v>
+        <v>0.198247471612719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2426056738851054</v>
+        <v>0.2436915776773114</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>3141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9138</v>
+        <v>9284</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003361139770033478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00100189028038792</v>
+        <v>0.001004844208715759</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009779635532432017</v>
+        <v>0.009935117579578354</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4445,19 +4445,19 @@
         <v>10152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4878</v>
+        <v>4880</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19238</v>
+        <v>18990</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009741318113898589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004680205283685852</v>
+        <v>0.00468251175489274</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01845924363673701</v>
+        <v>0.01822144700480919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4466,19 +4466,19 @@
         <v>13293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7362</v>
+        <v>7383</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23324</v>
+        <v>25164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006725109221520463</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003724530186193141</v>
+        <v>0.003735173666759212</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01179994380258449</v>
+        <v>0.01273107461775461</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>25200</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15702</v>
+        <v>15820</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36689</v>
+        <v>39857</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02696789541607014</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01680381105749551</v>
+        <v>0.01692984915553436</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03926332034573383</v>
+        <v>0.04265367575195684</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>46</v>
@@ -4516,19 +4516,19 @@
         <v>48994</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36641</v>
+        <v>36345</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65372</v>
+        <v>63507</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04701145888097039</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03515821781710728</v>
+        <v>0.03487374171343021</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06272658235941955</v>
+        <v>0.06093657575317052</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>67</v>
@@ -4537,19 +4537,19 @@
         <v>74194</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>57179</v>
+        <v>58257</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>94358</v>
+        <v>94466</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03753592840212275</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02892757069175645</v>
+        <v>0.02947302857024309</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04773727860993093</v>
+        <v>0.04779195740212971</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>133296</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>112926</v>
+        <v>112989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155778</v>
+        <v>155211</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1426488337622991</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1208488951188925</v>
+        <v>0.1209170215012254</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1667081959862326</v>
+        <v>0.1661012217543295</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>216</v>
@@ -4587,19 +4587,19 @@
         <v>223706</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>195819</v>
+        <v>197892</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>252343</v>
+        <v>248286</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2146527930567101</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1878946651914419</v>
+        <v>0.1898840409541745</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2421310616683612</v>
+        <v>0.2382386987252454</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>340</v>
@@ -4608,19 +4608,19 @@
         <v>357002</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>322625</v>
+        <v>319990</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>394401</v>
+        <v>391844</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1806131517480836</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1632211234715789</v>
+        <v>0.1618879916557441</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1995340321387269</v>
+        <v>0.1982400914673809</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>606677</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>577972</v>
+        <v>575563</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>637075</v>
+        <v>634610</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6492430664680007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6185246432772509</v>
+        <v>0.6159459815289819</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6817739342939271</v>
+        <v>0.6791359895280286</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>632</v>
@@ -4658,19 +4658,19 @@
         <v>666687</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>632741</v>
+        <v>637835</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>696624</v>
+        <v>696785</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6397073945395613</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6071350303959241</v>
+        <v>0.6120234055435489</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6684324991130672</v>
+        <v>0.6685873948375032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1213</v>
@@ -4679,19 +4679,19 @@
         <v>1273364</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1229497</v>
+        <v>1229482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1316787</v>
+        <v>1320089</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6442153529249276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6220222324295285</v>
+        <v>0.6220148034487988</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.666183954764854</v>
+        <v>0.6678545304154627</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>166123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140964</v>
+        <v>143755</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>189154</v>
+        <v>193924</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1777790645835966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1508540192032014</v>
+        <v>0.1538412968512244</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2024252043482984</v>
+        <v>0.2075307077724501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>90</v>
@@ -4729,19 +4729,19 @@
         <v>92636</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76594</v>
+        <v>75783</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114567</v>
+        <v>111890</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08888703540885966</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07349402799232148</v>
+        <v>0.07271621418116189</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1099301955754596</v>
+        <v>0.1073623020624312</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>257</v>
@@ -4750,19 +4750,19 @@
         <v>258759</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>231368</v>
+        <v>228842</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>290451</v>
+        <v>288762</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1309104577033456</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.117052840148558</v>
+        <v>0.1157749979226943</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.146943837091793</v>
+        <v>0.1460893050256626</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>9389</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4381</v>
+        <v>4998</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17456</v>
+        <v>17543</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002775696937143421</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001295254561363363</v>
+        <v>0.001477624336154337</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005160717553922877</v>
+        <v>0.005186402288108754</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -4875,19 +4875,19 @@
         <v>29019</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19086</v>
+        <v>19331</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41872</v>
+        <v>42483</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008208745416137933</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00539890338058694</v>
+        <v>0.005468281509450564</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01184463434445322</v>
+        <v>0.01201746470665994</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -4896,19 +4896,19 @@
         <v>38408</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27460</v>
+        <v>27223</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>52178</v>
+        <v>52518</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005552187010244912</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003969628062537451</v>
+        <v>0.003935357019493757</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.007542855842001627</v>
+        <v>0.007591981826209634</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>79055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62741</v>
+        <v>61303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>101338</v>
+        <v>99317</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02337214033645188</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01854908350637006</v>
+        <v>0.01812404680733413</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02996028193104448</v>
+        <v>0.02936259935748681</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -4946,19 +4946,19 @@
         <v>162903</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>138442</v>
+        <v>137872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>190314</v>
+        <v>192235</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04608116465874831</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03916174576452577</v>
+        <v>0.03900054998410317</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05383521263668389</v>
+        <v>0.05437848870358558</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>220</v>
@@ -4967,19 +4967,19 @@
         <v>241957</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>211322</v>
+        <v>211311</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>274556</v>
+        <v>272665</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03497729733890609</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03054859787690455</v>
+        <v>0.03054714696859813</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0396897239231827</v>
+        <v>0.03941634197210059</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>483248</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>439581</v>
+        <v>443686</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>526390</v>
+        <v>526288</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1428703106193198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1299602449873246</v>
+        <v>0.1311738463776959</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1556249698424149</v>
+        <v>0.1555949284578768</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>705</v>
@@ -5017,19 +5017,19 @@
         <v>761083</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>710898</v>
+        <v>711248</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>807586</v>
+        <v>809504</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2152916128918563</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.201095483074393</v>
+        <v>0.2011943916318261</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2284461471349112</v>
+        <v>0.2289887963905088</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1142</v>
@@ -5038,19 +5038,19 @@
         <v>1244331</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1178794</v>
+        <v>1179734</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1308357</v>
+        <v>1314596</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.179880292698109</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1704062124378295</v>
+        <v>0.1705421946795377</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1891358318936341</v>
+        <v>0.1900376864629306</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>2088183</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2032096</v>
+        <v>2031529</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2143760</v>
+        <v>2147042</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6173626142015158</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6007806811557493</v>
+        <v>0.6006129578661749</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.633793678538415</v>
+        <v>0.6347638965705157</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1968</v>
@@ -5088,19 +5088,19 @@
         <v>2125712</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2066276</v>
+        <v>2066075</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2181435</v>
+        <v>2181942</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6013112573164552</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5844984865210636</v>
+        <v>0.5844415543858229</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6170741329754513</v>
+        <v>0.6172173685371972</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3927</v>
@@ -5109,19 +5109,19 @@
         <v>4213894</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4134392</v>
+        <v>4132550</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4298783</v>
+        <v>4294554</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6091597731586861</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5976668865914495</v>
+        <v>0.597400610634035</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.621431221376368</v>
+        <v>0.6208199492706122</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>722551</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>677033</v>
+        <v>679206</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>770214</v>
+        <v>772517</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2136192379055691</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2001620066826725</v>
+        <v>0.2008045155592757</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2277103804397755</v>
+        <v>0.2283914513362371</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>425</v>
@@ -5159,19 +5159,19 @@
         <v>456410</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>418863</v>
+        <v>420328</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>498175</v>
+        <v>497410</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1291072197168023</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1184859768884534</v>
+        <v>0.1189003645088197</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1409212785552794</v>
+        <v>0.1407050014094318</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1116</v>
@@ -5180,19 +5180,19 @@
         <v>1178961</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1118102</v>
+        <v>1114571</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1242936</v>
+        <v>1238620</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1704304497940539</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1616325600625332</v>
+        <v>0.1611221112706826</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1796786188685271</v>
+        <v>0.1790546091631042</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>4364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1732</v>
+        <v>1699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10195</v>
+        <v>9623</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006516827611000807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002585904960238359</v>
+        <v>0.002537358126579318</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01522528593166699</v>
+        <v>0.0143710462931623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7416</v>
+        <v>7252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003027957048351672</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01109160596446795</v>
+        <v>0.01084689058144147</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -5566,19 +5566,19 @@
         <v>6388</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2768</v>
+        <v>2682</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12935</v>
+        <v>13087</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004773714470935648</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002068544226302657</v>
+        <v>0.00200403135530101</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009666140125119313</v>
+        <v>0.009779801026781396</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>15840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9143</v>
+        <v>8722</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24933</v>
+        <v>25542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.023655914041419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01365398337028136</v>
+        <v>0.01302529561296579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0372360914528031</v>
+        <v>0.038145168863967</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -5616,19 +5616,19 @@
         <v>42878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31715</v>
+        <v>31853</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56599</v>
+        <v>58789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06413250256640662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04743680927846174</v>
+        <v>0.04764317896040415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08465479144365151</v>
+        <v>0.08793132689745521</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -5637,19 +5637,19 @@
         <v>58718</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43920</v>
+        <v>45382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73606</v>
+        <v>74437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04387886930902377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03282098811853843</v>
+        <v>0.0339129521611775</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05500432101842792</v>
+        <v>0.05562529211645836</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>95212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77999</v>
+        <v>77811</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114165</v>
+        <v>113738</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1421930383564373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1164861383191187</v>
+        <v>0.1162050106663196</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1704987910454618</v>
+        <v>0.1698603419348743</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>140</v>
@@ -5687,19 +5687,19 @@
         <v>149456</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>128987</v>
+        <v>128110</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>172651</v>
+        <v>171999</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2235424797440189</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1929262694044879</v>
+        <v>0.1916149435264816</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2582343516968578</v>
+        <v>0.2572596495819339</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>234</v>
@@ -5708,19 +5708,19 @@
         <v>244669</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>217096</v>
+        <v>215884</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>273991</v>
+        <v>272978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1828369308922449</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1622325385124158</v>
+        <v>0.1613265248387102</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2047493928723523</v>
+        <v>0.2039923765066244</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>380495</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>353451</v>
+        <v>356254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>406088</v>
+        <v>404648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.568244588905406</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5278557795918417</v>
+        <v>0.5320426521404049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6064656301279311</v>
+        <v>0.6043161292274603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -5758,19 +5758,19 @@
         <v>337925</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>312110</v>
+        <v>310084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>363112</v>
+        <v>362541</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5054350863621758</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4668245515472461</v>
+        <v>0.4637942441334245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5431077642861611</v>
+        <v>0.5422531595634431</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>703</v>
@@ -5779,19 +5779,19 @@
         <v>718420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>682659</v>
+        <v>682393</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>752716</v>
+        <v>751994</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5368636399025493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5101403800007512</v>
+        <v>0.5099415099665142</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5624930097626027</v>
+        <v>0.5619531156716455</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>173687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150822</v>
+        <v>149547</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>197411</v>
+        <v>196648</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2593896310857369</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2252427367287581</v>
+        <v>0.2233395347436504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2948201535940727</v>
+        <v>0.293680841062284</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>142</v>
@@ -5829,19 +5829,19 @@
         <v>136298</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117223</v>
+        <v>116414</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>158810</v>
+        <v>156221</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.203861974279047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1753309382293517</v>
+        <v>0.1741204226758367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2375319533093743</v>
+        <v>0.2336600355220132</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>309</v>
@@ -5850,19 +5850,19 @@
         <v>309985</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>281957</v>
+        <v>279556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>341696</v>
+        <v>340076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2316468454252464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2107022372527178</v>
+        <v>0.2089080895275771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2553442497433479</v>
+        <v>0.2541331141784378</v>
       </c>
     </row>
     <row r="9">
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5437</v>
+        <v>4282</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0008952686067924224</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005337938983533319</v>
+        <v>0.004203750446652264</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5975,19 +5975,19 @@
         <v>3209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8631</v>
+        <v>8798</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003103250009247991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0008955043991989654</v>
+        <v>0.0008996954385487754</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008346478099353842</v>
+        <v>0.008507754324684877</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5996,19 +5996,19 @@
         <v>4121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1263</v>
+        <v>1022</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10572</v>
+        <v>10481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00200763469252056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0006152746635100539</v>
+        <v>0.0004978782844677222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005150429109331095</v>
+        <v>0.005106088949240634</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>21322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13217</v>
+        <v>13589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31094</v>
+        <v>31650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02093459116386981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01297642306466457</v>
+        <v>0.0133419863125117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03052912124615888</v>
+        <v>0.031074597353303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -6046,19 +6046,19 @@
         <v>33656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22738</v>
+        <v>22531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47490</v>
+        <v>48319</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03254631831375761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0219881202020676</v>
+        <v>0.02178808148910694</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04592494497499709</v>
+        <v>0.04672630458513971</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>51</v>
@@ -6067,19 +6067,19 @@
         <v>54978</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41750</v>
+        <v>41502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71947</v>
+        <v>73115</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02678450070744612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02034026191587339</v>
+        <v>0.02021909063651672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03505156722902381</v>
+        <v>0.03562074716771289</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>135957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>113791</v>
+        <v>116942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157706</v>
+        <v>160255</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1334859482006421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.111722578628253</v>
+        <v>0.1148161685183874</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1548399249695951</v>
+        <v>0.1573420369489534</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>188</v>
@@ -6117,19 +6117,19 @@
         <v>217415</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>190121</v>
+        <v>191055</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>242904</v>
+        <v>245436</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2102493927233411</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.183854505072974</v>
+        <v>0.1847574820939438</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2348984180010028</v>
+        <v>0.2373462227885836</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>320</v>
@@ -6138,19 +6138,19 @@
         <v>353372</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>316537</v>
+        <v>314500</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>389035</v>
+        <v>387401</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1721588519740886</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1542132214512216</v>
+        <v>0.15322104778334</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1895336493328827</v>
+        <v>0.1887375015390996</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>602784</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>568539</v>
+        <v>568360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>633127</v>
+        <v>636059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5918282630861436</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5582057848251128</v>
+        <v>0.5580303065968668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6216200131688026</v>
+        <v>0.6244988931511063</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>577</v>
@@ -6188,19 +6188,19 @@
         <v>604752</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>573318</v>
+        <v>571318</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>636721</v>
+        <v>636246</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5848193541455557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5544212869702853</v>
+        <v>0.5524874782180262</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6157353844541053</v>
+        <v>0.6152753358914619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1134</v>
@@ -6209,19 +6209,19 @@
         <v>1207535</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1162328</v>
+        <v>1164665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1254405</v>
+        <v>1256816</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5882972222020147</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5662728407846704</v>
+        <v>0.5674117318972418</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6111320026374156</v>
+        <v>0.6123064420917439</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>257537</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>229826</v>
+        <v>230867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>288328</v>
+        <v>286627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2528559289425521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2256485507062937</v>
+        <v>0.2266710741218834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2830876385421753</v>
+        <v>0.2814176689758311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -6259,19 +6259,19 @@
         <v>175051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153538</v>
+        <v>153164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>201762</v>
+        <v>201153</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1692816848080975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1484775339829018</v>
+        <v>0.1481153828892027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1951116525007742</v>
+        <v>0.1945228741658998</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>406</v>
@@ -6280,19 +6280,19 @@
         <v>432588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>394974</v>
+        <v>395900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>470934</v>
+        <v>470288</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2107517904239299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1924268536936874</v>
+        <v>0.1928777751220916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2294336453715111</v>
+        <v>0.229119169469278</v>
       </c>
     </row>
     <row r="15">
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10525</v>
+        <v>14028</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003754477292985949</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01387718993115357</v>
+        <v>0.01849638096114386</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6405,19 +6405,19 @@
         <v>8434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3626</v>
+        <v>3367</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16986</v>
+        <v>16624</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01085209339793943</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004666477398440136</v>
+        <v>0.004331957719474243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02185665042068339</v>
+        <v>0.02139146349040521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -6426,19 +6426,19 @@
         <v>11281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5267</v>
+        <v>5591</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21486</v>
+        <v>21932</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007346544167105666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003429736340073006</v>
+        <v>0.003640800475958692</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01399260622594903</v>
+        <v>0.01428247340835185</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>16004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9148</v>
+        <v>9687</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24731</v>
+        <v>26050</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02110166656681909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01206216753819855</v>
+        <v>0.01277259991166002</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03260908957127838</v>
+        <v>0.03434797359075519</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -6476,19 +6476,19 @@
         <v>33211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23245</v>
+        <v>23247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46927</v>
+        <v>48345</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0427344316697409</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02991089451898697</v>
+        <v>0.02991345564259707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06038468951795685</v>
+        <v>0.06220960554998066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -6497,19 +6497,19 @@
         <v>49214</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37484</v>
+        <v>36469</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65487</v>
+        <v>64136</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03204989732102777</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0244103951581893</v>
+        <v>0.0237497897363632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04264735856550831</v>
+        <v>0.04176704367921889</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>99123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81063</v>
+        <v>82101</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119842</v>
+        <v>118816</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1306963711121873</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1068840882912262</v>
+        <v>0.1082522683680624</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1580155183572557</v>
+        <v>0.156663070085346</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>115</v>
@@ -6547,19 +6547,19 @@
         <v>130045</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>110393</v>
+        <v>108020</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>153542</v>
+        <v>154577</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1673386714140407</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1420513085465792</v>
+        <v>0.1389971016317152</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.197573098656888</v>
+        <v>0.1989055287862549</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -6568,19 +6568,19 @@
         <v>229168</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>200295</v>
+        <v>201392</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>259549</v>
+        <v>259648</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1492408501540976</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1304381489283067</v>
+        <v>0.1311520404166159</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1690259992894092</v>
+        <v>0.1690902289659225</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>449500</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>424164</v>
+        <v>420021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>477380</v>
+        <v>477289</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5926797224599241</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5592735012181889</v>
+        <v>0.5538109352254356</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6294396521364495</v>
+        <v>0.6293206362461378</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>416</v>
@@ -6618,19 +6618,19 @@
         <v>440503</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>411275</v>
+        <v>412043</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>468456</v>
+        <v>467543</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5668268499142188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.529217336898922</v>
+        <v>0.5302062594440817</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6027958111752031</v>
+        <v>0.6016220632326618</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>827</v>
@@ -6639,19 +6639,19 @@
         <v>890003</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>850081</v>
+        <v>848317</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>929275</v>
+        <v>924646</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.579595717112346</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5535974863448118</v>
+        <v>0.5524485935374546</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6051709159840681</v>
+        <v>0.6021562989863762</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>190946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166057</v>
+        <v>168133</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214988</v>
+        <v>217248</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2517677625680836</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2189513734758212</v>
+        <v>0.2216884535420358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2834679019297509</v>
+        <v>0.2864478909735472</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>161</v>
@@ -6689,19 +6689,19 @@
         <v>164946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>144835</v>
+        <v>145705</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>189038</v>
+        <v>189011</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2122479536040602</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1863698751771139</v>
+        <v>0.1874890265773043</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2432486652990171</v>
+        <v>0.2432145586309581</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>336</v>
@@ -6710,19 +6710,19 @@
         <v>355892</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>322367</v>
+        <v>322142</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>389068</v>
+        <v>394264</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2317669912454229</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2099350730966089</v>
+        <v>0.2097884111217626</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2533726807641978</v>
+        <v>0.2567560777305467</v>
       </c>
     </row>
     <row r="21">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5636</v>
+        <v>5634</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002015201205902602</v>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006082385451093879</v>
+        <v>0.006080049326646935</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6835,19 +6835,19 @@
         <v>7976</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3247</v>
+        <v>3474</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15846</v>
+        <v>16732</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007709790390581828</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003138957980835948</v>
+        <v>0.003358372044587947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01531776061270953</v>
+        <v>0.01617402880305554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -6856,19 +6856,19 @@
         <v>9843</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4551</v>
+        <v>4454</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17684</v>
+        <v>19529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005018995633845214</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002320326655766097</v>
+        <v>0.00227085625228756</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009016859400571037</v>
+        <v>0.009957894608662711</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>20777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12073</v>
+        <v>12849</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31804</v>
+        <v>31337</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02242038752426008</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01302839248138542</v>
+        <v>0.013865366016166</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0343207927747364</v>
+        <v>0.03381649196831461</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -6906,19 +6906,19 @@
         <v>41570</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28497</v>
+        <v>28152</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>56871</v>
+        <v>56837</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04018479517990904</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0275470758238257</v>
+        <v>0.02721406419124055</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05497554553373207</v>
+        <v>0.05494255947219449</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -6927,19 +6927,19 @@
         <v>62347</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>46791</v>
+        <v>47464</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>80092</v>
+        <v>80835</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03179079634590104</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02385902324668042</v>
+        <v>0.0242019810546148</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0408393483438449</v>
+        <v>0.04121802611516893</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>124320</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>103575</v>
+        <v>104979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>144202</v>
+        <v>144435</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1341562150517947</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.111769454017346</v>
+        <v>0.1132849734902028</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1556113701084774</v>
+        <v>0.1558621577849878</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>181</v>
@@ -6977,19 +6977,19 @@
         <v>213448</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>184474</v>
+        <v>186283</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>241486</v>
+        <v>241180</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2063344987583996</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1783254014235231</v>
+        <v>0.1800749784960898</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2334380737539976</v>
+        <v>0.2331422063950029</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>308</v>
@@ -6998,19 +6998,19 @@
         <v>337769</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>304077</v>
+        <v>304074</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>373839</v>
+        <v>374753</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1722289748919013</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1550496774735226</v>
+        <v>0.1550480202256163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1906212349166235</v>
+        <v>0.191087228819426</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>546662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>518660</v>
+        <v>517727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>577442</v>
+        <v>574719</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5899124620840477</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5596954555514051</v>
+        <v>0.5586878213911645</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6231280780643623</v>
+        <v>0.6201891484095031</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>551</v>
@@ -7048,19 +7048,19 @@
         <v>592519</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>563950</v>
+        <v>559983</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>625335</v>
+        <v>622378</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5727715879951236</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5451544181931666</v>
+        <v>0.5413200690192072</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6044937931984043</v>
+        <v>0.601635354419067</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1093</v>
@@ -7069,19 +7069,19 @@
         <v>1139181</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1092488</v>
+        <v>1093907</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1182523</v>
+        <v>1184084</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5808709561195966</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5570622041643699</v>
+        <v>0.5577858196087176</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6029710621113405</v>
+        <v>0.6037673861420036</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>233057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>208058</v>
+        <v>207747</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>259194</v>
+        <v>258184</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2514957341339948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.224519026925812</v>
+        <v>0.2241838373239943</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2797011007181691</v>
+        <v>0.2786104600605701</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>178</v>
@@ -7119,19 +7119,19 @@
         <v>178964</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>155326</v>
+        <v>157220</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>202202</v>
+        <v>204335</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1729993276759859</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.150149375122112</v>
+        <v>0.1519803756094024</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1954634583775447</v>
+        <v>0.1975252556400756</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>409</v>
@@ -7140,19 +7140,19 @@
         <v>412021</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>378519</v>
+        <v>381388</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>448846</v>
+        <v>451815</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2100902770087558</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1930076092181245</v>
+        <v>0.1944706005918104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2288678271505126</v>
+        <v>0.2303815768375137</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>9990</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4560</v>
+        <v>4610</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18171</v>
+        <v>19452</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002961691945934197</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00135197299917012</v>
+        <v>0.001366643059274041</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005386898886111445</v>
+        <v>0.005766652135507337</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -7265,19 +7265,19 @@
         <v>21643</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13341</v>
+        <v>12729</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32339</v>
+        <v>33294</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006158482455771265</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00379631497463653</v>
+        <v>0.003622179515959473</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009202300523385939</v>
+        <v>0.009473838107038885</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>29</v>
@@ -7286,19 +7286,19 @@
         <v>31633</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20578</v>
+        <v>20780</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44949</v>
+        <v>46390</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004592825541362503</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002987734464323758</v>
+        <v>0.003017056562978864</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006526227235835736</v>
+        <v>0.006735402808882843</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>73943</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>57282</v>
+        <v>58700</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>92216</v>
+        <v>91805</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02192052545337674</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01698139362961355</v>
+        <v>0.0174018428489305</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02733772543131619</v>
+        <v>0.02721603698214718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>131</v>
@@ -7336,19 +7336,19 @@
         <v>151314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>128027</v>
+        <v>125836</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175566</v>
+        <v>179010</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04305696738171365</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03643062671302753</v>
+        <v>0.03580717970581568</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04995787221504223</v>
+        <v>0.05093793454706001</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>204</v>
@@ -7357,19 +7357,19 @@
         <v>225257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>196547</v>
+        <v>197553</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>257541</v>
+        <v>258132</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03270520477816833</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02853678028681685</v>
+        <v>0.02868293094203074</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03739261095139263</v>
+        <v>0.03747835763078392</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>454612</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>415201</v>
+        <v>416542</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>493881</v>
+        <v>494867</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1347712787632603</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1230876835792178</v>
+        <v>0.1234852733801749</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1464127580076211</v>
+        <v>0.1467051554139858</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>624</v>
@@ -7407,19 +7407,19 @@
         <v>710365</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>658567</v>
+        <v>664051</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>756817</v>
+        <v>765025</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2021368043991427</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1873975431274514</v>
+        <v>0.1889577754800648</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2153546542382189</v>
+        <v>0.2176904895867868</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1068</v>
@@ -7428,19 +7428,19 @@
         <v>1164977</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1103416</v>
+        <v>1093839</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1229157</v>
+        <v>1226644</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1691439321167561</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1602057730139688</v>
+        <v>0.1588153073748641</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1784622563589164</v>
+        <v>0.1780973343430702</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>1979440</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1919783</v>
+        <v>1919056</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2038592</v>
+        <v>2033249</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5868119372127805</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5691265721642226</v>
+        <v>0.5689108437681287</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6043478919261281</v>
+        <v>0.6027639481094568</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1882</v>
@@ -7478,19 +7478,19 @@
         <v>1975698</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1917092</v>
+        <v>1915892</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2034186</v>
+        <v>2037822</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5621914716145564</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5455147757191103</v>
+        <v>0.5451733394995224</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5788343732598966</v>
+        <v>0.5798689972858854</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3757</v>
@@ -7499,19 +7499,19 @@
         <v>3955138</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3873376</v>
+        <v>3875679</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4035658</v>
+        <v>4040820</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5742495661569439</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5623785256862502</v>
+        <v>0.562712760951766</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5859402895620651</v>
+        <v>0.5866898308728519</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>855225</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>799037</v>
+        <v>803486</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>904700</v>
+        <v>909372</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2535345666246483</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.236877303679586</v>
+        <v>0.2381963966310413</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2682015439350083</v>
+        <v>0.2695866004817098</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>652</v>
@@ -7549,19 +7549,19 @@
         <v>655260</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>613664</v>
+        <v>611986</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>704309</v>
+        <v>703177</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1864562741488159</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1746199945905257</v>
+        <v>0.174142668160474</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2004133802499453</v>
+        <v>0.2000913313900935</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1460</v>
@@ -7570,19 +7570,19 @@
         <v>1510485</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1444794</v>
+        <v>1447204</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1581085</v>
+        <v>1581305</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2193084714067691</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2097707986976354</v>
+        <v>0.2101206106984305</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.22955892146373</v>
+        <v>0.229590842076371</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>7878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3571</v>
+        <v>3660</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14575</v>
+        <v>15054</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01140617560733672</v>
+        <v>0.01140617560733671</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005169564527126322</v>
+        <v>0.00529849198925121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02110218933526994</v>
+        <v>0.0217952967826173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -7935,19 +7935,19 @@
         <v>11289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7008</v>
+        <v>7388</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16792</v>
+        <v>17189</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01540710254157594</v>
+        <v>0.01540710254157593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009563781368615595</v>
+        <v>0.01008360963621175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02291736252178263</v>
+        <v>0.02345865811860649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -7956,19 +7956,19 @@
         <v>19167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13174</v>
+        <v>13136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27676</v>
+        <v>27894</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01346568229158301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009254999265177945</v>
+        <v>0.009228369973265581</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01944333645920681</v>
+        <v>0.01959634645671688</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>30750</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22290</v>
+        <v>22530</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39795</v>
+        <v>40815</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04451994076755932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03227071769023177</v>
+        <v>0.03261880995605294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05761441391792729</v>
+        <v>0.05909205232429764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -8006,19 +8006,19 @@
         <v>50795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41111</v>
+        <v>42445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60416</v>
+        <v>61493</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06932334726355349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05610756861927651</v>
+        <v>0.05792827249342102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0824538745103348</v>
+        <v>0.08392440599047692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -8027,19 +8027,19 @@
         <v>81545</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70158</v>
+        <v>68733</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96123</v>
+        <v>97629</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05728767742213821</v>
+        <v>0.05728767742213822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04928785233041468</v>
+        <v>0.04828664629784337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06752942630854446</v>
+        <v>0.06858721685165779</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>120553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102911</v>
+        <v>102721</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141085</v>
+        <v>141586</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1745352522019264</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1489935526414931</v>
+        <v>0.1487182121333187</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2042608958540666</v>
+        <v>0.2049864050776822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>321</v>
@@ -8077,19 +8077,19 @@
         <v>161799</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>146025</v>
+        <v>146158</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180414</v>
+        <v>180486</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2208191094094901</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1992913595541112</v>
+        <v>0.199472427760726</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.246223723645646</v>
+        <v>0.2463220753603267</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>472</v>
@@ -8098,19 +8098,19 @@
         <v>282352</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>255896</v>
+        <v>258380</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>309425</v>
+        <v>309595</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1983602094826832</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1797737311585282</v>
+        <v>0.1815192968599436</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2173795353999493</v>
+        <v>0.2174993147185271</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>430706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>403810</v>
+        <v>404091</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>458579</v>
+        <v>457099</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6235697670845065</v>
+        <v>0.6235697670845063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5846308249700677</v>
+        <v>0.5850368658091203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6639247575431421</v>
+        <v>0.6617807639301131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>698</v>
@@ -8148,19 +8148,19 @@
         <v>436758</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>416151</v>
+        <v>413948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>459274</v>
+        <v>456496</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5960762638826704</v>
+        <v>0.5960762638826703</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5679514912450723</v>
+        <v>0.5649461801541314</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6268053357462787</v>
+        <v>0.6230137524743933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1148</v>
@@ -8169,19 +8169,19 @@
         <v>867463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>830192</v>
+        <v>836168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>902029</v>
+        <v>906565</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.609417283285575</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5832330247288223</v>
+        <v>0.5874312493217221</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6337006201332387</v>
+        <v>0.636887062271686</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>100822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80047</v>
+        <v>77574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127879</v>
+        <v>126571</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1459688643386712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1158907843748498</v>
+        <v>0.1123112107129801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.185141217950737</v>
+        <v>0.1832475150470539</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>90</v>
@@ -8219,19 +8219,19 @@
         <v>72081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56524</v>
+        <v>58015</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87162</v>
+        <v>88867</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09837417690271018</v>
+        <v>0.09837417690271016</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07714255760087151</v>
+        <v>0.07917762041386348</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1189568033599867</v>
+        <v>0.1212833837889574</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>161</v>
@@ -8240,19 +8240,19 @@
         <v>172903</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>147339</v>
+        <v>146355</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>207532</v>
+        <v>203395</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1214691475180205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1035099422220025</v>
+        <v>0.1028186164897486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1457972061835976</v>
+        <v>0.1428909265847223</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>10449</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5650</v>
+        <v>5485</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18299</v>
+        <v>18093</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009961478168831861</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005386578922834228</v>
+        <v>0.005229583943328862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01744527199833578</v>
+        <v>0.01724926528734039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -8365,19 +8365,19 @@
         <v>15724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10825</v>
+        <v>10518</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22746</v>
+        <v>22698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01468357973073585</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01010894929762304</v>
+        <v>0.009821893717468042</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02124153825163271</v>
+        <v>0.02119666936523617</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -8386,19 +8386,19 @@
         <v>26172</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18747</v>
+        <v>18134</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35824</v>
+        <v>36179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01234694513255831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008843850375685924</v>
+        <v>0.008554597446000288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01690016986568168</v>
+        <v>0.01706734057180258</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>33238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24660</v>
+        <v>24134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44647</v>
+        <v>44007</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03168793740573444</v>
+        <v>0.03168793740573445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02350997748653459</v>
+        <v>0.02300815144927695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04256510188350653</v>
+        <v>0.04195424934598743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -8436,19 +8436,19 @@
         <v>54547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44290</v>
+        <v>44132</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66049</v>
+        <v>65766</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0509387898489958</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04136016035398848</v>
+        <v>0.04121281679977619</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06167932508139546</v>
+        <v>0.0614154434215722</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>144</v>
@@ -8457,19 +8457,19 @@
         <v>87785</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73383</v>
+        <v>72909</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>102875</v>
+        <v>102475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04141290242924323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03461841427590973</v>
+        <v>0.03439498556575044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04853148604292746</v>
+        <v>0.04834304088176343</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>125278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>105493</v>
+        <v>106004</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>148048</v>
+        <v>148104</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1194357596474145</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1005730130988194</v>
+        <v>0.1010601416504473</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1411438935855096</v>
+        <v>0.1411973678589157</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>359</v>
@@ -8507,19 +8507,19 @@
         <v>224315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>203650</v>
+        <v>203210</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>250264</v>
+        <v>248602</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.209475753549886</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1901780576184418</v>
+        <v>0.1897671627297702</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2337085719742362</v>
+        <v>0.2321563637952595</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>497</v>
@@ -8528,19 +8528,19 @@
         <v>349593</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>319083</v>
+        <v>318549</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>383956</v>
+        <v>378522</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1649213190011766</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1505284428382044</v>
+        <v>0.1502763922545275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1811323508827733</v>
+        <v>0.1785685249876845</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>679171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>641568</v>
+        <v>638413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>713200</v>
+        <v>713451</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6474973893599351</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6116480254859498</v>
+        <v>0.6086401254068259</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6799397165661374</v>
+        <v>0.6801789724772895</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>892</v>
@@ -8578,19 +8578,19 @@
         <v>649221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>619296</v>
+        <v>618696</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>679322</v>
+        <v>677149</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6062741529817641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.578328337314242</v>
+        <v>0.5777679009007853</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6343834501855127</v>
+        <v>0.6323542839718853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1533</v>
@@ -8599,19 +8599,19 @@
         <v>1328392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1284004</v>
+        <v>1279261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1370999</v>
+        <v>1373863</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6266726215676973</v>
+        <v>0.6266726215676974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6057322741826604</v>
+        <v>0.6034948158866371</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6467722979104277</v>
+        <v>0.648123503615451</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>200781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>169820</v>
+        <v>170316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>238006</v>
+        <v>237363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1914174354180842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.161900286060861</v>
+        <v>0.1623728283299451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2269060474259021</v>
+        <v>0.2262932417750808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>139</v>
@@ -8649,19 +8649,19 @@
         <v>127031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104779</v>
+        <v>106720</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149207</v>
+        <v>150191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1186277238886183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09784764641913597</v>
+        <v>0.09965996998561591</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1393365676025476</v>
+        <v>0.1402560089260279</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>265</v>
@@ -8670,19 +8670,19 @@
         <v>327812</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292550</v>
+        <v>289443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>368675</v>
+        <v>373066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1546462118693245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1380110623189285</v>
+        <v>0.1365456186368549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1739233927285894</v>
+        <v>0.1759947370415803</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>9529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4483</v>
+        <v>4579</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19500</v>
+        <v>18765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01186563566358217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005581900684262502</v>
+        <v>0.005702018935231049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02428209645153818</v>
+        <v>0.02336711226972419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -8795,19 +8795,19 @@
         <v>8129</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4591</v>
+        <v>4144</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15315</v>
+        <v>14438</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01000734927695148</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005651875351035579</v>
+        <v>0.005101608406917404</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01885498526915251</v>
+        <v>0.01777528616767244</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -8816,19 +8816,19 @@
         <v>17658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11097</v>
+        <v>10814</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28810</v>
+        <v>26808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01093120883495153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006869587734373586</v>
+        <v>0.006694484278174933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01783563147759597</v>
+        <v>0.01659608394592979</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>18102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11218</v>
+        <v>11707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27369</v>
+        <v>27069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02254077456897136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01396845809873332</v>
+        <v>0.0145782149310034</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03408083504346912</v>
+        <v>0.03370624523434337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -8866,19 +8866,19 @@
         <v>32764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24120</v>
+        <v>24376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41855</v>
+        <v>42539</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04033733596797714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02969555793759285</v>
+        <v>0.03001046964128182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05152858517555448</v>
+        <v>0.05237078525556083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -8887,19 +8887,19 @@
         <v>50866</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39506</v>
+        <v>40739</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63715</v>
+        <v>64187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03148965594067157</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02445690958608557</v>
+        <v>0.02521998415070085</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03944382835524572</v>
+        <v>0.03973631499258527</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>113733</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92528</v>
+        <v>94303</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135472</v>
+        <v>136319</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1416227565468768</v>
+        <v>0.1416227565468769</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1152172028422316</v>
+        <v>0.1174279821407434</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.168691658270501</v>
+        <v>0.1697465341226809</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>223</v>
@@ -8937,19 +8937,19 @@
         <v>158400</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>139634</v>
+        <v>139895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>182026</v>
+        <v>182582</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1950121344910662</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1719082056771092</v>
+        <v>0.1722295985505261</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.224098583752367</v>
+        <v>0.2247833347456427</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>335</v>
@@ -8958,19 +8958,19 @@
         <v>272134</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>243836</v>
+        <v>244335</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>300840</v>
+        <v>303689</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1684692466647998</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1509511825095099</v>
+        <v>0.1512599076113822</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1862404446026462</v>
+        <v>0.1880037723822877</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>497653</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>463506</v>
+        <v>463103</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>527719</v>
+        <v>527937</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6196864901322986</v>
+        <v>0.6196864901322987</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5771652156550179</v>
+        <v>0.5766642530698545</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6571239816465386</v>
+        <v>0.6573958335308082</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>647</v>
@@ -9008,19 +9008,19 @@
         <v>506404</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>477701</v>
+        <v>481793</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>531877</v>
+        <v>535705</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6234518344657504</v>
+        <v>0.6234518344657505</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5881145930442807</v>
+        <v>0.5931522755527938</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6548118519656602</v>
+        <v>0.6595245693827558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1075</v>
@@ -9029,19 +9029,19 @@
         <v>1004058</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>959424</v>
+        <v>961801</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1042753</v>
+        <v>1043408</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6215798682410352</v>
+        <v>0.6215798682410353</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5939484149687734</v>
+        <v>0.5954199170321943</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6455350452801609</v>
+        <v>0.6459405183300198</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>164055</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137957</v>
+        <v>137887</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198893</v>
+        <v>196072</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.204284343088271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1717863602399382</v>
+        <v>0.1716987733072301</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2476646703111525</v>
+        <v>0.2441518600707705</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -9079,19 +9079,19 @@
         <v>106561</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87213</v>
+        <v>89321</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128902</v>
+        <v>126087</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1311913457982547</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1073708910107034</v>
+        <v>0.1099656781709254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1586961548957915</v>
+        <v>0.155230123455676</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>221</v>
@@ -9100,19 +9100,19 @@
         <v>270617</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>236106</v>
+        <v>235528</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>308696</v>
+        <v>306371</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1675300203185418</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1461658374909879</v>
+        <v>0.1458075693505952</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1911036778216506</v>
+        <v>0.1896646510242833</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>10671</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5497</v>
+        <v>5530</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18312</v>
+        <v>18887</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01077845554536534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005552572212305193</v>
+        <v>0.005585645061631826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01849621802898835</v>
+        <v>0.01907639018654133</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -9225,19 +9225,19 @@
         <v>14915</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9239</v>
+        <v>9513</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21643</v>
+        <v>22489</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01332880573663791</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008256178925008271</v>
+        <v>0.008500837018932816</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01934082307962911</v>
+        <v>0.02009694056836749</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -9246,19 +9246,19 @@
         <v>25587</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18064</v>
+        <v>17697</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34861</v>
+        <v>35625</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0121316121164864</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008564621693839694</v>
+        <v>0.00839087251436953</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01652858958287685</v>
+        <v>0.016891217808831</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>33512</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23834</v>
+        <v>24360</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45257</v>
+        <v>48666</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03384848736711047</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02407327667272676</v>
+        <v>0.02460479253314897</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0457110598984844</v>
+        <v>0.04915449237703934</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>100</v>
@@ -9296,19 +9296,19 @@
         <v>60558</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>49400</v>
+        <v>49240</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72736</v>
+        <v>73724</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.054115874686474</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04414511520930018</v>
+        <v>0.04400170517682331</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06499837639670117</v>
+        <v>0.06588163345364302</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>143</v>
@@ -9317,19 +9317,19 @@
         <v>94070</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>79398</v>
+        <v>78805</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>112247</v>
+        <v>111060</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.044601892301265</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03764532173728824</v>
+        <v>0.03736412590804254</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05322008655163112</v>
+        <v>0.05265756129501786</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>144833</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>123423</v>
+        <v>124523</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>166513</v>
+        <v>165714</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1462867050348397</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1246613916574954</v>
+        <v>0.125773222737797</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1681845038010845</v>
+        <v>0.1673772350293406</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>367</v>
@@ -9367,19 +9367,19 @@
         <v>235375</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>213387</v>
+        <v>214340</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>259204</v>
+        <v>260326</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2103364956933217</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1906878043401379</v>
+        <v>0.1915393228940126</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2316301070260976</v>
+        <v>0.2326335121897649</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>543</v>
@@ -9388,19 +9388,19 @@
         <v>380208</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>347415</v>
+        <v>350703</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>413531</v>
+        <v>412243</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1802700361887496</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1647214843464769</v>
+        <v>0.1662805313539231</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1960694116530291</v>
+        <v>0.1954590194112687</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>613340</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>582055</v>
+        <v>578673</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>646999</v>
+        <v>645245</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6194969984593575</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5878973857771483</v>
+        <v>0.5844810744713516</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6534932433625078</v>
+        <v>0.6517219847733875</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>943</v>
@@ -9438,19 +9438,19 @@
         <v>694041</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>668343</v>
+        <v>665148</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>722992</v>
+        <v>724061</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6202103771170933</v>
+        <v>0.6202103771170934</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5972466164393412</v>
+        <v>0.5943914560589869</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6460819398450303</v>
+        <v>0.6470373725400342</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1576</v>
@@ -9459,19 +9459,19 @@
         <v>1307382</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1262344</v>
+        <v>1266859</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1347342</v>
+        <v>1350588</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6198755006045594</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5985213193373234</v>
+        <v>0.6006620576080328</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6388217990208305</v>
+        <v>0.6403612386239728</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>187705</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>162146</v>
+        <v>162260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>217218</v>
+        <v>221089</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1895893535933269</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1637738690453847</v>
+        <v>0.1638890219628612</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2193984189719486</v>
+        <v>0.2233080589421937</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>129</v>
@@ -9509,19 +9509,19 @@
         <v>114152</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95303</v>
+        <v>95569</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>134760</v>
+        <v>137918</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1020084467664732</v>
+        <v>0.1020084467664731</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08516519794923272</v>
+        <v>0.08540280914607863</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1204241056239535</v>
+        <v>0.1232464878432202</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>271</v>
@@ -9530,19 +9530,19 @@
         <v>301857</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>267907</v>
+        <v>267679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338607</v>
+        <v>335887</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1431209587889396</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1270241915299928</v>
+        <v>0.1269159604877897</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1605453524810497</v>
+        <v>0.1592558554387495</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>38527</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28503</v>
+        <v>26925</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52317</v>
+        <v>53774</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01090575414558122</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00806824176782802</v>
+        <v>0.007621462393077118</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0148092266269141</v>
+        <v>0.01522164097611041</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -9655,19 +9655,19 @@
         <v>50057</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39800</v>
+        <v>40411</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61661</v>
+        <v>63612</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01340261711369243</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01065642269957169</v>
+        <v>0.01082006644664532</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01650969593712006</v>
+        <v>0.01703186020820758</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>131</v>
@@ -9676,19 +9676,19 @@
         <v>88584</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>73882</v>
+        <v>73153</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>108051</v>
+        <v>106153</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01218890200592701</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01016597957803145</v>
+        <v>0.01006556237105482</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01486750994422927</v>
+        <v>0.01460628104285198</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>115602</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97454</v>
+        <v>97886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135363</v>
+        <v>136793</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03272294269892695</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02758588025628207</v>
+        <v>0.0277079402447106</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03831649557581415</v>
+        <v>0.03872133236865965</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>354</v>
@@ -9726,19 +9726,19 @@
         <v>198664</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>179413</v>
+        <v>179318</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>220158</v>
+        <v>218620</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05319186850274814</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04803739333867566</v>
+        <v>0.04801193146761634</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05894686160433867</v>
+        <v>0.05853486382582116</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>511</v>
@@ -9747,19 +9747,19 @@
         <v>314267</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>286822</v>
+        <v>286227</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>344143</v>
+        <v>342787</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04324200549259647</v>
+        <v>0.04324200549259648</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03946576360008237</v>
+        <v>0.0393839034069803</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04735289620912914</v>
+        <v>0.04716625350298433</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>504398</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>466983</v>
+        <v>460510</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>549143</v>
+        <v>548477</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1427771660199044</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1321865038329392</v>
+        <v>0.1303541153682368</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.15544305271052</v>
+        <v>0.1552543374343156</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1270</v>
@@ -9797,19 +9797,19 @@
         <v>779889</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>740725</v>
+        <v>735376</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>825970</v>
+        <v>822410</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2088134879144926</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.19832748877325</v>
+        <v>0.1968951417977503</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2211514754493183</v>
+        <v>0.2201984450053851</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1847</v>
@@ -9818,19 +9818,19 @@
         <v>1284287</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1222842</v>
+        <v>1228629</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1340907</v>
+        <v>1349021</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1767134958170679</v>
+        <v>0.176713495817068</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.168258932436811</v>
+        <v>0.1690551274864058</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1845042226652183</v>
+        <v>0.1856207269674248</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>2220871</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2155716</v>
+        <v>2157229</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2285932</v>
+        <v>2291835</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.6286499972885596</v>
+        <v>0.6286499972885599</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6102070213938383</v>
+        <v>0.610635142676712</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6470665855347717</v>
+        <v>0.6487375647574992</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3180</v>
@@ -9868,19 +9868,19 @@
         <v>2286425</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2230034</v>
+        <v>2236282</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2340409</v>
+        <v>2341195</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6121848744285607</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5970863266678235</v>
+        <v>0.5987593593681141</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6266390578414112</v>
+        <v>0.6268495701411216</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5332</v>
@@ -9889,19 +9889,19 @@
         <v>4507296</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4421118</v>
+        <v>4427545</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4597008</v>
+        <v>4598386</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.6201885048326399</v>
+        <v>0.62018850483264</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6083308009060802</v>
+        <v>0.6092150603570466</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6325325880749709</v>
+        <v>0.6327221887044838</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>653364</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>593424</v>
+        <v>595418</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>707132</v>
+        <v>718788</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1849441398470279</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1679774669515359</v>
+        <v>0.1685416607359279</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2001640782485692</v>
+        <v>0.2034633501597474</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>472</v>
@@ -9939,19 +9939,19 @@
         <v>419825</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>379590</v>
+        <v>380511</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>461115</v>
+        <v>459366</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1124071520405061</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1016343161853752</v>
+        <v>0.101880839992538</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1234625842405487</v>
+        <v>0.1229942533762278</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>918</v>
@@ -9960,19 +9960,19 @@
         <v>1073189</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1003181</v>
+        <v>1004163</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1149351</v>
+        <v>1153604</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1476670918517686</v>
+        <v>0.1476670918517687</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1380342463006459</v>
+        <v>0.1381693950938462</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1581468091819837</v>
+        <v>0.1587320336274915</v>
       </c>
     </row>
     <row r="33">
